--- a/biology/Botanique/Paramignya_lobata/Paramignya_lobata.xlsx
+++ b/biology/Botanique/Paramignya_lobata/Paramignya_lobata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Paramignya lobata est une espèce de plante à fleur du genre Paramignya et de la famille des Rutaceae endémique des forêts marécageuses de Malaisie péninsulaire[1] (Perak, Terengganu, Pahang, Territoire fédéral de Kuala Lumpur). La plante est une grimpante épineuse, aromatique, utilisée en médecine traditionnelle. 
+Paramignya lobata est une espèce de plante à fleur du genre Paramignya et de la famille des Rutaceae endémique des forêts marécageuses de Malaisie péninsulaire (Perak, Terengganu, Pahang, Territoire fédéral de Kuala Lumpur). La plante est une grimpante épineuse, aromatique, utilisée en médecine traditionnelle. 
 </t>
         </is>
       </c>
@@ -512,13 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paramignya lobata Burkill (1931)[2] est le nom usuel[3] mais d'origine non résolue[4] avec un niveau de confiance faible[5]. Pararnignya lobata Burkill (1922) est décrite par I. H. Burkill comme synonyme d'Atalantia monophylla Ridley (1922)[6]. 
-Phylogénie
-Thomas Schwartz et al. (2015) le placent proche de P. Scandens = P citrifolia[7] et de Pamburus (observation que W.T. Swingle avait déjà faite en 1943[8] . Thi Cam Mien Phi et al. (2021) confirment la proximité[9]. Amel Ouestlati Bahri (2017) détaille ainsi la tribu de Citreae, sous-tribu des Triphasiinae: espèces Luvunga, Merope angulata = Paramignya angulata, Monanthocitrus cornuta, Oxanthera neocaledonica, Oxanthera sp, Pamburus missionis, Paramignya lobata et scandens, Triphasia trifolia, Wenzelia[10]. 
-Nom commun
-En Malais: Akar Lelimau, Susur Ayam Jantan[11]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paramignya lobata Burkill (1931) est le nom usuel mais d'origine non résolue avec un niveau de confiance faible. Pararnignya lobata Burkill (1922) est décrite par I. H. Burkill comme synonyme d'Atalantia monophylla Ridley (1922). 
 </t>
         </is>
       </c>
@@ -544,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Morphologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liane grimpante à tiges couverte de très courtes épines (4 à 8 mm) courbées vers l'arrière[8] fleur au pétiole jaune orangé[12], feuilles minces à tendance coriaces, oblongues-ovales ou longuement elliptiques[8]. Fruits  proéminents de 2 à 5 lobes rouge tomate à maturité[13] avec des grosses graines[6], différent de toutes les autres espèces de Paramignya[8].
-La réaction au réactif de Dragendorff de l'extrait au méthanol-chloroforme de tiges donne un faible résultat positif indiquant la présence d'alcaloïdes. Les extraits de tige et de feuille à 70 % de méthanol révèlent celle de stéroïdes, de triterpènes et de saponines.[14]
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Schwartz et al. (2015) le placent proche de P. Scandens = P citrifolia et de Pamburus (observation que W.T. Swingle avait déjà faite en 1943 . Thi Cam Mien Phi et al. (2021) confirment la proximité. Amel Ouestlati Bahri (2017) détaille ainsi la tribu de Citreae, sous-tribu des Triphasiinae: espèces Luvunga, Merope angulata = Paramignya angulata, Monanthocitrus cornuta, Oxanthera neocaledonica, Oxanthera sp, Pamburus missionis, Paramignya lobata et scandens, Triphasia trifolia, Wenzelia. 
 </t>
         </is>
       </c>
@@ -576,15 +591,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom commun</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Malais: Akar Lelimau, Susur Ayam Jantan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paramignya_lobata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramignya_lobata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liane grimpante à tiges couverte de très courtes épines (4 à 8 mm) courbées vers l'arrière fleur au pétiole jaune orangé, feuilles minces à tendance coriaces, oblongues-ovales ou longuement elliptiques. Fruits  proéminents de 2 à 5 lobes rouge tomate à maturité avec des grosses graines, différent de toutes les autres espèces de Paramignya.
+La réaction au réactif de Dragendorff de l'extrait au méthanol-chloroforme de tiges donne un faible résultat positif indiquant la présence d'alcaloïdes. Les extraits de tige et de feuille à 70 % de méthanol révèlent celle de stéroïdes, de triterpènes et de saponines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paramignya_lobata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramignya_lobata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une publication malaise (2010) donne comme indication: «aide à travailler»[15], elle est peut être à rapprocher de la décoction de Paramignya citrifolia qui est un tonique au Viet Nam.
-Huile essentielle
-Vingt-neuf composants ont été identifiés (2021). Les sesquiterpénes (46,2 %) dominent avec β-caryophyllène (24,8 %, contre environ 20 % chez P. trimera), l'oxyde de caryophyllène (20,5 %), le (E)-nérolidol (10,4 %), l'α-humulène (5,8 % conte 25 % chez P. trimera) et l'époxyde d'humulène II (5,4 %). 
-L'activité antioxydante est évaluée comme moyenne (IC50 82,4 mg/mL)[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une publication malaise (2010) donne comme indication: «aide à travailler», elle est peut être à rapprocher de la décoction de Paramignya citrifolia qui est un tonique au Viet Nam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paramignya_lobata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramignya_lobata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Huile essentielle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vingt-neuf composants ont été identifiés (2021). Les sesquiterpénes (46,2 %) dominent avec β-caryophyllène (24,8 %, contre environ 20 % chez P. trimera), l'oxyde de caryophyllène (20,5 %), le (E)-nérolidol (10,4 %), l'α-humulène (5,8 % conte 25 % chez P. trimera) et l'époxyde d'humulène II (5,4 %). 
+L'activité antioxydante est évaluée comme moyenne (IC50 82,4 mg/mL).
 </t>
         </is>
       </c>
